--- a/BO/tests/difficult_functions/error_spreadsheet.xlsx
+++ b/BO/tests/difficult_functions/error_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ml9218_ic_ac_uk/Documents/MSci_Project/code/Synth/Optimising-Field-Synthesiser/BO/tests/difficult_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD9DD54-393A-4662-971C-8CD8F6DE7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1AD9DD54-393A-4662-971C-8CD8F6DE7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6A7BC5-DEBB-4CCB-882F-C2F393028671}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7F62BFA-9079-407F-B9D0-0A4D1F28E37A}"/>
+    <workbookView xWindow="1572" yWindow="108" windowWidth="21468" windowHeight="10608" xr2:uid="{D7F62BFA-9079-407F-B9D0-0A4D1F28E37A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>number of initial points</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Booth</t>
+  </si>
+  <si>
+    <t>Matyas</t>
   </si>
 </sst>
 </file>
@@ -302,15 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -330,6 +324,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5779,10 +5782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD89AC-82EE-4B8E-BF05-0C4CC5A7EA39}">
-  <dimension ref="B2:U62"/>
+  <dimension ref="B2:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="U68" sqref="B68:U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5794,12 +5797,12 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -5835,39 +5838,39 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F9" s="27"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F12" s="27"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
@@ -5875,76 +5878,76 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="24">
         <v>1</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="25">
         <v>2</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="24">
         <v>4</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="25">
         <v>6</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="26">
         <v>7</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <v>8</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="17">
         <v>9</v>
       </c>
       <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="22">
         <v>20</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="22">
         <v>30</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="22">
         <v>40</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="22">
         <v>50</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="22">
         <v>60</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="22">
         <v>70</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="22">
         <v>80</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="22">
         <v>90</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="26">
         <v>100</v>
       </c>
     </row>
@@ -5952,25 +5955,25 @@
       <c r="B19" s="2">
         <v>52</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="27">
         <v>52</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>37</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <v>40</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <v>10</v>
       </c>
       <c r="G19" s="3">
         <v>25</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="22">
         <v>28</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="28">
         <v>41</v>
       </c>
       <c r="J19" s="2">
@@ -5982,31 +5985,31 @@
       <c r="L19" s="4">
         <v>32</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="22">
         <v>15</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="22">
         <v>22</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="22">
         <v>8</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="22">
         <v>7</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="22">
         <v>9</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="22">
         <v>6</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="22">
         <v>10</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="22">
         <v>7</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="28">
         <v>8</v>
       </c>
     </row>
@@ -6020,22 +6023,22 @@
       <c r="D20" s="15">
         <v>7.0200000000000002E-3</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="29">
         <v>5.2200000000000002E-5</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="30">
         <v>1.64E-3</v>
       </c>
       <c r="G20" s="6">
         <v>1.6199999999999999E-3</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="31">
         <v>1.34E-3</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="32">
         <v>2.4199999999999998E-3</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="33">
         <v>3.3899999999999998E-3</v>
       </c>
       <c r="K20" s="15">
@@ -6044,28 +6047,28 @@
       <c r="L20" s="7">
         <v>3.3899999999999998E-3</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="34">
         <v>7.9399999999999991E-3</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="34">
         <v>3.82E-3</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="34">
         <v>4.1200000000000004E-3</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="34">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="34">
         <v>2.8499999999999999E-4</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="34">
         <v>6.79E-3</v>
       </c>
       <c r="S20" s="1">
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="T20" s="37">
+      <c r="T20" s="34">
         <v>1.1199999999999999E-3</v>
       </c>
       <c r="U20" s="12">
@@ -6073,71 +6076,71 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>0</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="24">
         <v>1</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="25">
         <v>2</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="26">
         <v>3</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="24">
         <v>4</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="17">
         <v>6</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <v>7</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <v>8</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="17">
         <v>9</v>
       </c>
       <c r="L25" s="4">
         <v>10</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="22">
         <v>20</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="22">
         <v>30</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="22">
         <v>40</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="22">
         <v>50</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="22">
         <v>60</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="22">
         <v>70</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25" s="22">
         <v>80</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25" s="22">
         <v>90</v>
       </c>
-      <c r="U25" s="21">
+      <c r="U25" s="18">
         <v>100</v>
       </c>
     </row>
@@ -6148,7 +6151,7 @@
       <c r="C26" s="2">
         <v>130</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>177</v>
       </c>
       <c r="E26" s="4">
@@ -6160,7 +6163,7 @@
       <c r="G26" s="3">
         <v>9</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <v>180</v>
       </c>
       <c r="I26" s="4">
@@ -6175,28 +6178,28 @@
       <c r="L26" s="4">
         <v>172</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="22">
         <v>165</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="22">
         <v>64</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="22">
         <v>94</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="22">
         <v>152</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="22">
         <v>155</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R26" s="22">
         <v>185</v>
       </c>
-      <c r="S26" s="25">
+      <c r="S26" s="22">
         <v>26</v>
       </c>
-      <c r="T26" s="25">
+      <c r="T26" s="22">
         <v>161</v>
       </c>
       <c r="U26" s="4">
@@ -6207,16 +6210,16 @@
       <c r="B27" s="11">
         <v>5.7200000000000003E-3</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>5.7200000000000003E-3</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <v>4.8500000000000001E-3</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <v>5.45E-3</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="33">
         <v>2.3800000000000002E-3</v>
       </c>
       <c r="G27" s="13">
@@ -6237,13 +6240,13 @@
       <c r="L27" s="12">
         <v>3.5E-4</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="23">
         <v>6.7099999999999998E-3</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="23">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="34">
         <v>4.3200000000000001E-3</v>
       </c>
       <c r="P27" s="1">
@@ -6261,76 +6264,76 @@
       <c r="T27">
         <v>2.3400000000000001E-3</v>
       </c>
-      <c r="U27" s="24">
+      <c r="U27" s="21">
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="24">
         <v>1</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="25">
         <v>2</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="26">
         <v>3</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="24">
         <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="17">
         <v>6</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="18">
         <v>7</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="24">
         <v>8</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="17">
         <v>9</v>
       </c>
       <c r="L32" s="4">
         <v>10</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="22">
         <v>20</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="22">
         <v>30</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="22">
         <v>40</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="22">
         <v>50</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="22">
         <v>60</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="22">
         <v>70</v>
       </c>
-      <c r="S32" s="25">
+      <c r="S32" s="22">
         <v>80</v>
       </c>
-      <c r="T32" s="25">
+      <c r="T32" s="22">
         <v>90</v>
       </c>
-      <c r="U32" s="21">
+      <c r="U32" s="18">
         <v>100</v>
       </c>
     </row>
@@ -6353,46 +6356,46 @@
       <c r="G33" s="3">
         <v>15</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="22">
         <v>14</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="22">
         <v>11</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="22">
         <v>12</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="22">
         <v>13</v>
       </c>
       <c r="L33" s="4">
         <v>12</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="22">
         <v>8</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N33" s="22">
         <v>7</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="22">
         <v>5</v>
       </c>
-      <c r="P33" s="25">
+      <c r="P33" s="22">
         <v>4</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="Q33" s="22">
         <v>4</v>
       </c>
-      <c r="R33" s="25">
+      <c r="R33" s="22">
         <v>4</v>
       </c>
-      <c r="S33" s="25">
+      <c r="S33" s="22">
         <v>4</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T33" s="22">
         <v>1</v>
       </c>
-      <c r="U33" s="25">
+      <c r="U33" s="22">
         <v>1</v>
       </c>
     </row>
@@ -6459,11 +6462,11 @@
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
@@ -6484,46 +6487,46 @@
       <c r="G39" s="3">
         <v>5</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="22">
         <v>6</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="22">
         <v>7</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="22">
         <v>8</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="22">
         <v>9</v>
       </c>
       <c r="L39" s="4">
         <v>10</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="22">
         <v>20</v>
       </c>
-      <c r="N39" s="25">
+      <c r="N39" s="22">
         <v>30</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="22">
         <v>40</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="22">
         <v>50</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="Q39" s="22">
         <v>60</v>
       </c>
-      <c r="R39" s="25">
+      <c r="R39" s="22">
         <v>70</v>
       </c>
-      <c r="S39" s="25">
+      <c r="S39" s="22">
         <v>80</v>
       </c>
-      <c r="T39" s="25">
+      <c r="T39" s="22">
         <v>90</v>
       </c>
-      <c r="U39" s="25">
+      <c r="U39" s="22">
         <v>100</v>
       </c>
     </row>
@@ -6546,46 +6549,46 @@
       <c r="G40" s="3">
         <v>203</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="22">
         <v>150</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="22">
         <v>164</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="22">
         <v>227</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="22">
         <v>500</v>
       </c>
       <c r="L40" s="4">
         <v>500</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="22">
         <v>180</v>
       </c>
-      <c r="N40" s="25">
+      <c r="N40" s="22">
         <v>125</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="22">
         <v>500</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="22">
         <v>109</v>
       </c>
-      <c r="Q40" s="25">
+      <c r="Q40" s="22">
         <v>149</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R40" s="22">
         <v>500</v>
       </c>
-      <c r="S40" s="25">
+      <c r="S40" s="22">
         <v>85</v>
       </c>
-      <c r="T40" s="25">
+      <c r="T40" s="22">
         <v>97</v>
       </c>
-      <c r="U40" s="25">
+      <c r="U40" s="22">
         <v>91</v>
       </c>
     </row>
@@ -6652,20 +6655,20 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="19">
+      <c r="B46" s="16">
         <v>0</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="17">
         <v>5</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="18">
         <v>10</v>
       </c>
     </row>
@@ -6681,13 +6684,13 @@
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6977,15 +6980,206 @@
         <v>9.4800000000000006E-3</v>
       </c>
     </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>9</v>
+      </c>
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>20</v>
+      </c>
+      <c r="N67">
+        <v>30</v>
+      </c>
+      <c r="O67">
+        <v>40</v>
+      </c>
+      <c r="P67">
+        <v>50</v>
+      </c>
+      <c r="Q67">
+        <v>60</v>
+      </c>
+      <c r="R67">
+        <v>70</v>
+      </c>
+      <c r="S67">
+        <v>80</v>
+      </c>
+      <c r="T67">
+        <v>90</v>
+      </c>
+      <c r="U67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>34</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+      <c r="E68">
+        <v>36</v>
+      </c>
+      <c r="F68">
+        <v>47</v>
+      </c>
+      <c r="G68">
+        <v>29</v>
+      </c>
+      <c r="H68">
+        <v>54</v>
+      </c>
+      <c r="I68">
+        <v>63</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>32</v>
+      </c>
+      <c r="L68">
+        <v>47</v>
+      </c>
+      <c r="M68">
+        <v>17</v>
+      </c>
+      <c r="N68">
+        <v>15</v>
+      </c>
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>11</v>
+      </c>
+      <c r="S68">
+        <v>39</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="C69">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="D69">
+        <v>7.2300000000000001E-4</v>
+      </c>
+      <c r="E69">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="F69">
+        <v>1.9300000000000001E-3</v>
+      </c>
+      <c r="G69">
+        <v>6.6499999999999997E-3</v>
+      </c>
+      <c r="H69">
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="I69">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="J69">
+        <v>1.49E-3</v>
+      </c>
+      <c r="K69">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="L69">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="M69">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="N69">
+        <v>7.0699999999999999E-3</v>
+      </c>
+      <c r="O69">
+        <v>6.7299999999999999E-3</v>
+      </c>
+      <c r="P69" s="1">
+        <v>2.6100000000000001E-5</v>
+      </c>
+      <c r="Q69">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="R69">
+        <v>3.3E-3</v>
+      </c>
+      <c r="S69">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="T69">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="U69">
+        <v>6.3299999999999997E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
